--- a/Web.xlsx
+++ b/Web.xlsx
@@ -246,10 +246,10 @@
             <v>6</v>
           </cell>
           <cell r="B10" t="str">
-            <v>Esbuskeskerra</v>
+            <v>Oju Peligru</v>
           </cell>
           <cell r="C10">
-            <v>84</v>
+            <v>90</v>
           </cell>
           <cell r="D10" t="str">
             <v/>
@@ -264,10 +264,10 @@
             <v/>
           </cell>
           <cell r="H10">
-            <v>84</v>
+            <v>90</v>
           </cell>
           <cell r="I10">
-            <v>3</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="11">
@@ -275,10 +275,10 @@
             <v>7</v>
           </cell>
           <cell r="B11" t="str">
-            <v>Black Patt</v>
+            <v>Esbuskeskerra</v>
           </cell>
           <cell r="C11">
-            <v>83</v>
+            <v>84</v>
           </cell>
           <cell r="D11" t="str">
             <v/>
@@ -293,10 +293,10 @@
             <v/>
           </cell>
           <cell r="H11">
-            <v>83</v>
+            <v>84</v>
           </cell>
           <cell r="I11">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="12">
@@ -304,10 +304,10 @@
             <v>8</v>
           </cell>
           <cell r="B12" t="str">
-            <v/>
-          </cell>
-          <cell r="C12" t="str">
-            <v/>
+            <v>Black Patt</v>
+          </cell>
+          <cell r="C12">
+            <v>83</v>
           </cell>
           <cell r="D12" t="str">
             <v/>
@@ -321,11 +321,11 @@
           <cell r="G12" t="str">
             <v/>
           </cell>
-          <cell r="H12" t="str">
-            <v/>
-          </cell>
-          <cell r="I12" t="str">
-            <v/>
+          <cell r="H12">
+            <v>83</v>
+          </cell>
+          <cell r="I12">
+            <v>2</v>
           </cell>
         </row>
         <row r="13">
@@ -942,10 +942,10 @@
             <v>1</v>
           </cell>
           <cell r="B38" t="str">
-            <v>Calella Marxa</v>
+            <v>La Penya del Bistec</v>
           </cell>
           <cell r="C38">
-            <v>119</v>
+            <v>158</v>
           </cell>
           <cell r="D38" t="str">
             <v/>
@@ -960,10 +960,10 @@
             <v/>
           </cell>
           <cell r="H38">
-            <v>119</v>
+            <v>158</v>
           </cell>
           <cell r="I38">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="39">
@@ -971,10 +971,10 @@
             <v>2</v>
           </cell>
           <cell r="B39" t="str">
-            <v>Barri de Pequín</v>
+            <v>Calella Marxa</v>
           </cell>
           <cell r="C39">
-            <v>116</v>
+            <v>119</v>
           </cell>
           <cell r="D39" t="str">
             <v/>
@@ -989,10 +989,10 @@
             <v/>
           </cell>
           <cell r="H39">
-            <v>116</v>
+            <v>119</v>
           </cell>
           <cell r="I39">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="40">
@@ -1000,10 +1000,10 @@
             <v>3</v>
           </cell>
           <cell r="B40" t="str">
-            <v>La Penya del Bistec</v>
+            <v>Barri de Pequín</v>
           </cell>
           <cell r="C40">
-            <v>115</v>
+            <v>116</v>
           </cell>
           <cell r="D40" t="str">
             <v/>
@@ -1018,7 +1018,7 @@
             <v/>
           </cell>
           <cell r="H40">
-            <v>115</v>
+            <v>116</v>
           </cell>
           <cell r="I40">
             <v>8</v>
@@ -1147,13 +1147,13 @@
             <v>1</v>
           </cell>
           <cell r="B4" t="str">
-            <v>Josep Cladellas</v>
+            <v>Laia Roura</v>
           </cell>
           <cell r="C4" t="str">
-            <v>Marfallones Estrellufades</v>
+            <v>Oju Peligru</v>
           </cell>
           <cell r="D4">
-            <v>30</v>
+            <v>90</v>
           </cell>
           <cell r="E4" t="str">
             <v/>
@@ -1168,13 +1168,13 @@
             <v/>
           </cell>
           <cell r="I4">
+            <v>810</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="K4">
             <v>90</v>
-          </cell>
-          <cell r="J4">
-            <v>3</v>
-          </cell>
-          <cell r="K4">
-            <v>30</v>
           </cell>
           <cell r="L4">
             <v>0</v>
@@ -1185,7 +1185,7 @@
             <v>2</v>
           </cell>
           <cell r="B5" t="str">
-            <v>Xavier Ruscalleda</v>
+            <v>Josep Cladellas</v>
           </cell>
           <cell r="C5" t="str">
             <v>Marfallones Estrellufades</v>
@@ -1223,10 +1223,10 @@
             <v>3</v>
           </cell>
           <cell r="B6" t="str">
-            <v>Carlos Acosta</v>
+            <v>Xavier Ruscalleda</v>
           </cell>
           <cell r="C6" t="str">
-            <v>Esbuskeskerra</v>
+            <v>Marfallones Estrellufades</v>
           </cell>
           <cell r="D6">
             <v>30</v>
@@ -1261,10 +1261,10 @@
             <v>4</v>
           </cell>
           <cell r="B7" t="str">
-            <v>Amalio Mena</v>
+            <v>Carlos Acosta</v>
           </cell>
           <cell r="C7" t="str">
-            <v>4 x 4</v>
+            <v>Esbuskeskerra</v>
           </cell>
           <cell r="D7">
             <v>30</v>
@@ -1299,10 +1299,10 @@
             <v>5</v>
           </cell>
           <cell r="B8" t="str">
-            <v>Josep Duran</v>
+            <v>Amalio Mena</v>
           </cell>
           <cell r="C8" t="str">
-            <v>8 x 8</v>
+            <v>4 x 4</v>
           </cell>
           <cell r="D8">
             <v>30</v>
@@ -1337,7 +1337,7 @@
             <v>6</v>
           </cell>
           <cell r="B9" t="str">
-            <v>Nuri Vilert</v>
+            <v>Josep Duran</v>
           </cell>
           <cell r="C9" t="str">
             <v>8 x 8</v>
@@ -1375,13 +1375,13 @@
             <v>7</v>
           </cell>
           <cell r="B10" t="str">
-            <v>Josep Mª Romaguera</v>
+            <v>Nuri Vilert</v>
           </cell>
           <cell r="C10" t="str">
-            <v>4 x 4</v>
+            <v>8 x 8</v>
           </cell>
           <cell r="D10">
-            <v>26</v>
+            <v>30</v>
           </cell>
           <cell r="E10" t="str">
             <v/>
@@ -1396,13 +1396,13 @@
             <v/>
           </cell>
           <cell r="I10">
-            <v>78</v>
+            <v>90</v>
           </cell>
           <cell r="J10">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="K10">
-            <v>26</v>
+            <v>30</v>
           </cell>
           <cell r="L10">
             <v>0</v>
@@ -1413,10 +1413,10 @@
             <v>8</v>
           </cell>
           <cell r="B11" t="str">
-            <v>Pere Taberner</v>
+            <v>Josep Mª Romaguera</v>
           </cell>
           <cell r="C11" t="str">
-            <v>8 x 8</v>
+            <v>4 x 4</v>
           </cell>
           <cell r="D11">
             <v>26</v>
@@ -1451,7 +1451,7 @@
             <v>9</v>
           </cell>
           <cell r="B12" t="str">
-            <v>Pere Roca</v>
+            <v>Pere Taberner</v>
           </cell>
           <cell r="C12" t="str">
             <v>8 x 8</v>
@@ -1489,13 +1489,13 @@
             <v>10</v>
           </cell>
           <cell r="B13" t="str">
-            <v>Juanma Esteban</v>
+            <v>Pere Roca</v>
           </cell>
           <cell r="C13" t="str">
-            <v>Marfallones Estrellufades</v>
+            <v>8 x 8</v>
           </cell>
           <cell r="D13">
-            <v>24</v>
+            <v>26</v>
           </cell>
           <cell r="E13" t="str">
             <v/>
@@ -1510,13 +1510,13 @@
             <v/>
           </cell>
           <cell r="I13">
-            <v>72</v>
+            <v>78</v>
           </cell>
           <cell r="J13">
             <v>2</v>
           </cell>
           <cell r="K13">
-            <v>24</v>
+            <v>26</v>
           </cell>
           <cell r="L13">
             <v>0</v>
@@ -1527,13 +1527,13 @@
             <v>11</v>
           </cell>
           <cell r="B14" t="str">
-            <v>David Campeny</v>
+            <v>Juanma Esteban</v>
           </cell>
           <cell r="C14" t="str">
             <v>Marfallones Estrellufades</v>
           </cell>
           <cell r="D14">
-            <v>20</v>
+            <v>24</v>
           </cell>
           <cell r="E14" t="str">
             <v/>
@@ -1548,13 +1548,13 @@
             <v/>
           </cell>
           <cell r="I14">
-            <v>60</v>
+            <v>72</v>
           </cell>
           <cell r="J14">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="K14">
-            <v>20</v>
+            <v>24</v>
           </cell>
           <cell r="L14">
             <v>0</v>
@@ -1565,10 +1565,10 @@
             <v>12</v>
           </cell>
           <cell r="B15" t="str">
-            <v>Martí Serra</v>
+            <v>David Campeny</v>
           </cell>
           <cell r="C15" t="str">
-            <v>Xavineta Bitlla Club</v>
+            <v>Marfallones Estrellufades</v>
           </cell>
           <cell r="D15">
             <v>20</v>
@@ -1603,7 +1603,7 @@
             <v>13</v>
           </cell>
           <cell r="B16" t="str">
-            <v>Cristina Caballero</v>
+            <v>Martí Serra</v>
           </cell>
           <cell r="C16" t="str">
             <v>Xavineta Bitlla Club</v>
@@ -1641,10 +1641,10 @@
             <v>14</v>
           </cell>
           <cell r="B17" t="str">
-            <v>Josep Romaguera</v>
+            <v>Cristina Caballero</v>
           </cell>
           <cell r="C17" t="str">
-            <v>Black Patt</v>
+            <v>Xavineta Bitlla Club</v>
           </cell>
           <cell r="D17">
             <v>20</v>
@@ -1679,7 +1679,7 @@
             <v>15</v>
           </cell>
           <cell r="B18" t="str">
-            <v>Ruben Roncel</v>
+            <v>Josep Romaguera</v>
           </cell>
           <cell r="C18" t="str">
             <v>Black Patt</v>
@@ -1717,13 +1717,13 @@
             <v>16</v>
           </cell>
           <cell r="B19" t="str">
-            <v>Lluc Caupena</v>
+            <v>Ruben Roncel</v>
           </cell>
           <cell r="C19" t="str">
-            <v>Xavineta Bitlla Club</v>
+            <v>Black Patt</v>
           </cell>
           <cell r="D19">
-            <v>19</v>
+            <v>20</v>
           </cell>
           <cell r="E19" t="str">
             <v/>
@@ -1738,13 +1738,13 @@
             <v/>
           </cell>
           <cell r="I19">
-            <v>57</v>
+            <v>60</v>
           </cell>
           <cell r="J19">
             <v>1</v>
           </cell>
           <cell r="K19">
-            <v>19</v>
+            <v>20</v>
           </cell>
           <cell r="L19">
             <v>0</v>
@@ -1755,10 +1755,10 @@
             <v>17</v>
           </cell>
           <cell r="B20" t="str">
-            <v>Jaume Perramon</v>
+            <v>Lluc Caupena</v>
           </cell>
           <cell r="C20" t="str">
-            <v>Equip Bitlla</v>
+            <v>Xavineta Bitlla Club</v>
           </cell>
           <cell r="D20">
             <v>19</v>
@@ -1793,13 +1793,13 @@
             <v>18</v>
           </cell>
           <cell r="B21" t="str">
-            <v>Amadeu Sánchez</v>
+            <v>Jaume Perramon</v>
           </cell>
           <cell r="C21" t="str">
-            <v>Black Patt</v>
+            <v>Equip Bitlla</v>
           </cell>
           <cell r="D21">
-            <v>16</v>
+            <v>19</v>
           </cell>
           <cell r="E21" t="str">
             <v/>
@@ -1814,13 +1814,13 @@
             <v/>
           </cell>
           <cell r="I21">
-            <v>48</v>
+            <v>57</v>
           </cell>
           <cell r="J21">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K21">
-            <v>16</v>
+            <v>19</v>
           </cell>
           <cell r="L21">
             <v>0</v>
@@ -1831,7 +1831,7 @@
             <v>19</v>
           </cell>
           <cell r="B22" t="str">
-            <v>Albert Agell</v>
+            <v>Amadeu Sánchez</v>
           </cell>
           <cell r="C22" t="str">
             <v>Black Patt</v>
@@ -1869,10 +1869,10 @@
             <v>20</v>
           </cell>
           <cell r="B23" t="str">
-            <v>Xavier Gil</v>
+            <v>Albert Agell</v>
           </cell>
           <cell r="C23" t="str">
-            <v>Esbuskeskerra</v>
+            <v>Black Patt</v>
           </cell>
           <cell r="D23">
             <v>16</v>
@@ -1907,7 +1907,7 @@
             <v>21</v>
           </cell>
           <cell r="B24" t="str">
-            <v>Albert Taberner</v>
+            <v>Xavier Gil</v>
           </cell>
           <cell r="C24" t="str">
             <v>Esbuskeskerra</v>
@@ -1945,13 +1945,13 @@
             <v>22</v>
           </cell>
           <cell r="B25" t="str">
-            <v>David Manresa</v>
+            <v>Albert Taberner</v>
           </cell>
           <cell r="C25" t="str">
-            <v>Marfallones Estrellufades</v>
+            <v>Esbuskeskerra</v>
           </cell>
           <cell r="D25">
-            <v>12</v>
+            <v>16</v>
           </cell>
           <cell r="E25" t="str">
             <v/>
@@ -1966,13 +1966,13 @@
             <v/>
           </cell>
           <cell r="I25">
-            <v>36</v>
+            <v>48</v>
           </cell>
           <cell r="J25">
             <v>0</v>
           </cell>
           <cell r="K25">
-            <v>12</v>
+            <v>16</v>
           </cell>
           <cell r="L25">
             <v>0</v>
@@ -1983,10 +1983,10 @@
             <v>23</v>
           </cell>
           <cell r="B26" t="str">
-            <v>Santi Barrera</v>
+            <v>David Manresa</v>
           </cell>
           <cell r="C26" t="str">
-            <v>8 x 8</v>
+            <v>Marfallones Estrellufades</v>
           </cell>
           <cell r="D26">
             <v>12</v>
@@ -2021,13 +2021,13 @@
             <v>24</v>
           </cell>
           <cell r="B27" t="str">
-            <v>Víctor Aranda</v>
+            <v>Santi Barrera</v>
           </cell>
           <cell r="C27" t="str">
-            <v>Black Patt</v>
+            <v>8 x 8</v>
           </cell>
           <cell r="D27">
-            <v>11</v>
+            <v>12</v>
           </cell>
           <cell r="E27" t="str">
             <v/>
@@ -2042,13 +2042,13 @@
             <v/>
           </cell>
           <cell r="I27">
-            <v>33</v>
+            <v>36</v>
           </cell>
           <cell r="J27">
             <v>0</v>
           </cell>
           <cell r="K27">
-            <v>11</v>
+            <v>12</v>
           </cell>
           <cell r="L27">
             <v>0</v>
@@ -2059,10 +2059,10 @@
             <v>25</v>
           </cell>
           <cell r="B28" t="str">
-            <v>Cristina Pino</v>
+            <v>Víctor Aranda</v>
           </cell>
           <cell r="C28" t="str">
-            <v>Esbuskeskerra</v>
+            <v>Black Patt</v>
           </cell>
           <cell r="D28">
             <v>11</v>
@@ -2097,7 +2097,7 @@
             <v>26</v>
           </cell>
           <cell r="B29" t="str">
-            <v>Ramon Julià</v>
+            <v>Cristina Pino</v>
           </cell>
           <cell r="C29" t="str">
             <v>Esbuskeskerra</v>
@@ -2135,10 +2135,10 @@
             <v>27</v>
           </cell>
           <cell r="B30" t="str">
-            <v>Carlos Galobardes</v>
+            <v>Ramon Julià</v>
           </cell>
           <cell r="C30" t="str">
-            <v>4 x 4</v>
+            <v>Esbuskeskerra</v>
           </cell>
           <cell r="D30">
             <v>11</v>
@@ -2173,13 +2173,13 @@
             <v>28</v>
           </cell>
           <cell r="B31" t="str">
-            <v/>
+            <v>Carlos Galobardes</v>
           </cell>
           <cell r="C31" t="str">
-            <v/>
-          </cell>
-          <cell r="D31" t="str">
-            <v/>
+            <v>4 x 4</v>
+          </cell>
+          <cell r="D31">
+            <v>11</v>
           </cell>
           <cell r="E31" t="str">
             <v/>
@@ -2193,17 +2193,17 @@
           <cell r="H31" t="str">
             <v/>
           </cell>
-          <cell r="I31" t="str">
-            <v/>
-          </cell>
-          <cell r="J31" t="str">
-            <v/>
-          </cell>
-          <cell r="K31" t="str">
-            <v/>
-          </cell>
-          <cell r="L31" t="str">
-            <v/>
+          <cell r="I31">
+            <v>33</v>
+          </cell>
+          <cell r="J31">
+            <v>0</v>
+          </cell>
+          <cell r="K31">
+            <v>11</v>
+          </cell>
+          <cell r="L31">
+            <v>0</v>
           </cell>
         </row>
         <row r="32">
@@ -7613,7 +7613,7 @@
             <v>La Penya del Bistec</v>
           </cell>
           <cell r="D226">
-            <v>27</v>
+            <v>70</v>
           </cell>
           <cell r="E226" t="str">
             <v/>
@@ -7628,13 +7628,13 @@
             <v/>
           </cell>
           <cell r="I226">
-            <v>60.75</v>
+            <v>70</v>
           </cell>
           <cell r="J226">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="K226">
-            <v>27</v>
+            <v>70</v>
           </cell>
           <cell r="L226">
             <v>1</v>
@@ -7873,7 +7873,7 @@
             <v>18</v>
           </cell>
           <cell r="B233" t="str">
-            <v>Martí Barrera Boschmonart</v>
+            <v>Martí Barrera (C.M)</v>
           </cell>
           <cell r="C233" t="str">
             <v>Calella Marxa</v>
@@ -11059,10 +11059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L290"/>
+  <dimension ref="A1:L291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="A292" sqref="A292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11088,7 +11088,7 @@
         <v>29</v>
       </c>
       <c r="F1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -11098,15 +11098,15 @@
       </c>
       <c r="B2" t="str">
         <f>'[1]Resum ind.'!B4</f>
-        <v>Josep Cladellas</v>
+        <v>Laia Roura</v>
       </c>
       <c r="C2" t="str">
         <f>'[1]Resum ind.'!C4</f>
-        <v>Marfallones Estrellufades</v>
+        <v>Oju Peligru</v>
       </c>
       <c r="D2">
         <f>'[1]Resum ind.'!D4</f>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E2" t="str">
         <f>'[1]Resum ind.'!E4</f>
@@ -11126,15 +11126,15 @@
       </c>
       <c r="I2">
         <f>'[1]Resum ind.'!I4</f>
-        <v>90</v>
+        <v>810</v>
       </c>
       <c r="J2">
         <f>'[1]Resum ind.'!J4</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f>'[1]Resum ind.'!K4</f>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L2">
         <f>'[1]Resum ind.'!L4</f>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="B3" t="str">
         <f>'[1]Resum ind.'!B5</f>
-        <v>Xavier Ruscalleda</v>
+        <v>Josep Cladellas</v>
       </c>
       <c r="C3" t="str">
         <f>'[1]Resum ind.'!C5</f>
@@ -11198,11 +11198,11 @@
       </c>
       <c r="B4" t="str">
         <f>'[1]Resum ind.'!B6</f>
-        <v>Carlos Acosta</v>
+        <v>Xavier Ruscalleda</v>
       </c>
       <c r="C4" t="str">
         <f>'[1]Resum ind.'!C6</f>
-        <v>Esbuskeskerra</v>
+        <v>Marfallones Estrellufades</v>
       </c>
       <c r="D4">
         <f>'[1]Resum ind.'!D6</f>
@@ -11248,11 +11248,11 @@
       </c>
       <c r="B5" t="str">
         <f>'[1]Resum ind.'!B7</f>
-        <v>Amalio Mena</v>
+        <v>Carlos Acosta</v>
       </c>
       <c r="C5" t="str">
         <f>'[1]Resum ind.'!C7</f>
-        <v>4 x 4</v>
+        <v>Esbuskeskerra</v>
       </c>
       <c r="D5">
         <f>'[1]Resum ind.'!D7</f>
@@ -11298,11 +11298,11 @@
       </c>
       <c r="B6" t="str">
         <f>'[1]Resum ind.'!B8</f>
-        <v>Josep Duran</v>
+        <v>Amalio Mena</v>
       </c>
       <c r="C6" t="str">
         <f>'[1]Resum ind.'!C8</f>
-        <v>8 x 8</v>
+        <v>4 x 4</v>
       </c>
       <c r="D6">
         <f>'[1]Resum ind.'!D8</f>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="B7" t="str">
         <f>'[1]Resum ind.'!B9</f>
-        <v>Nuri Vilert</v>
+        <v>Josep Duran</v>
       </c>
       <c r="C7" t="str">
         <f>'[1]Resum ind.'!C9</f>
@@ -11398,15 +11398,15 @@
       </c>
       <c r="B8" t="str">
         <f>'[1]Resum ind.'!B10</f>
-        <v>Josep Mª Romaguera</v>
+        <v>Nuri Vilert</v>
       </c>
       <c r="C8" t="str">
         <f>'[1]Resum ind.'!C10</f>
-        <v>4 x 4</v>
+        <v>8 x 8</v>
       </c>
       <c r="D8">
         <f>'[1]Resum ind.'!D10</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" t="str">
         <f>'[1]Resum ind.'!E10</f>
@@ -11426,15 +11426,15 @@
       </c>
       <c r="I8">
         <f>'[1]Resum ind.'!I10</f>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J8">
         <f>'[1]Resum ind.'!J10</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <f>'[1]Resum ind.'!K10</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L8">
         <f>'[1]Resum ind.'!L10</f>
@@ -11448,11 +11448,11 @@
       </c>
       <c r="B9" t="str">
         <f>'[1]Resum ind.'!B11</f>
-        <v>Pere Taberner</v>
+        <v>Josep Mª Romaguera</v>
       </c>
       <c r="C9" t="str">
         <f>'[1]Resum ind.'!C11</f>
-        <v>8 x 8</v>
+        <v>4 x 4</v>
       </c>
       <c r="D9">
         <f>'[1]Resum ind.'!D11</f>
@@ -11498,7 +11498,7 @@
       </c>
       <c r="B10" t="str">
         <f>'[1]Resum ind.'!B12</f>
-        <v>Pere Roca</v>
+        <v>Pere Taberner</v>
       </c>
       <c r="C10" t="str">
         <f>'[1]Resum ind.'!C12</f>
@@ -11548,15 +11548,15 @@
       </c>
       <c r="B11" t="str">
         <f>'[1]Resum ind.'!B13</f>
-        <v>Juanma Esteban</v>
+        <v>Pere Roca</v>
       </c>
       <c r="C11" t="str">
         <f>'[1]Resum ind.'!C13</f>
-        <v>Marfallones Estrellufades</v>
+        <v>8 x 8</v>
       </c>
       <c r="D11">
         <f>'[1]Resum ind.'!D13</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" t="str">
         <f>'[1]Resum ind.'!E13</f>
@@ -11576,7 +11576,7 @@
       </c>
       <c r="I11">
         <f>'[1]Resum ind.'!I13</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J11">
         <f>'[1]Resum ind.'!J13</f>
@@ -11584,7 +11584,7 @@
       </c>
       <c r="K11">
         <f>'[1]Resum ind.'!K13</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L11">
         <f>'[1]Resum ind.'!L13</f>
@@ -11598,7 +11598,7 @@
       </c>
       <c r="B12" t="str">
         <f>'[1]Resum ind.'!B14</f>
-        <v>David Campeny</v>
+        <v>Juanma Esteban</v>
       </c>
       <c r="C12" t="str">
         <f>'[1]Resum ind.'!C14</f>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="D12">
         <f>'[1]Resum ind.'!D14</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12" t="str">
         <f>'[1]Resum ind.'!E14</f>
@@ -11626,15 +11626,15 @@
       </c>
       <c r="I12">
         <f>'[1]Resum ind.'!I14</f>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="J12">
         <f>'[1]Resum ind.'!J14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12">
         <f>'[1]Resum ind.'!K14</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L12">
         <f>'[1]Resum ind.'!L14</f>
@@ -11648,11 +11648,11 @@
       </c>
       <c r="B13" t="str">
         <f>'[1]Resum ind.'!B15</f>
-        <v>Martí Serra</v>
+        <v>David Campeny</v>
       </c>
       <c r="C13" t="str">
         <f>'[1]Resum ind.'!C15</f>
-        <v>Xavineta Bitlla Club</v>
+        <v>Marfallones Estrellufades</v>
       </c>
       <c r="D13">
         <f>'[1]Resum ind.'!D15</f>
@@ -11698,7 +11698,7 @@
       </c>
       <c r="B14" t="str">
         <f>'[1]Resum ind.'!B16</f>
-        <v>Cristina Caballero</v>
+        <v>Martí Serra</v>
       </c>
       <c r="C14" t="str">
         <f>'[1]Resum ind.'!C16</f>
@@ -11748,11 +11748,11 @@
       </c>
       <c r="B15" t="str">
         <f>'[1]Resum ind.'!B17</f>
-        <v>Josep Romaguera</v>
+        <v>Cristina Caballero</v>
       </c>
       <c r="C15" t="str">
         <f>'[1]Resum ind.'!C17</f>
-        <v>Black Patt</v>
+        <v>Xavineta Bitlla Club</v>
       </c>
       <c r="D15">
         <f>'[1]Resum ind.'!D17</f>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="B16" t="str">
         <f>'[1]Resum ind.'!B18</f>
-        <v>Ruben Roncel</v>
+        <v>Josep Romaguera</v>
       </c>
       <c r="C16" t="str">
         <f>'[1]Resum ind.'!C18</f>
@@ -11848,15 +11848,15 @@
       </c>
       <c r="B17" t="str">
         <f>'[1]Resum ind.'!B19</f>
-        <v>Lluc Caupena</v>
+        <v>Ruben Roncel</v>
       </c>
       <c r="C17" t="str">
         <f>'[1]Resum ind.'!C19</f>
-        <v>Xavineta Bitlla Club</v>
+        <v>Black Patt</v>
       </c>
       <c r="D17">
         <f>'[1]Resum ind.'!D19</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="str">
         <f>'[1]Resum ind.'!E19</f>
@@ -11876,7 +11876,7 @@
       </c>
       <c r="I17">
         <f>'[1]Resum ind.'!I19</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J17">
         <f>'[1]Resum ind.'!J19</f>
@@ -11884,7 +11884,7 @@
       </c>
       <c r="K17">
         <f>'[1]Resum ind.'!K19</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L17">
         <f>'[1]Resum ind.'!L19</f>
@@ -11898,11 +11898,11 @@
       </c>
       <c r="B18" t="str">
         <f>'[1]Resum ind.'!B20</f>
-        <v>Jaume Perramon</v>
+        <v>Lluc Caupena</v>
       </c>
       <c r="C18" t="str">
         <f>'[1]Resum ind.'!C20</f>
-        <v>Equip Bitlla</v>
+        <v>Xavineta Bitlla Club</v>
       </c>
       <c r="D18">
         <f>'[1]Resum ind.'!D20</f>
@@ -11948,15 +11948,15 @@
       </c>
       <c r="B19" t="str">
         <f>'[1]Resum ind.'!B21</f>
-        <v>Amadeu Sánchez</v>
+        <v>Jaume Perramon</v>
       </c>
       <c r="C19" t="str">
         <f>'[1]Resum ind.'!C21</f>
-        <v>Black Patt</v>
+        <v>Equip Bitlla</v>
       </c>
       <c r="D19">
         <f>'[1]Resum ind.'!D21</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E19" t="str">
         <f>'[1]Resum ind.'!E21</f>
@@ -11976,15 +11976,15 @@
       </c>
       <c r="I19">
         <f>'[1]Resum ind.'!I21</f>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J19">
         <f>'[1]Resum ind.'!J21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <f>'[1]Resum ind.'!K21</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L19">
         <f>'[1]Resum ind.'!L21</f>
@@ -11998,7 +11998,7 @@
       </c>
       <c r="B20" t="str">
         <f>'[1]Resum ind.'!B22</f>
-        <v>Albert Agell</v>
+        <v>Amadeu Sánchez</v>
       </c>
       <c r="C20" t="str">
         <f>'[1]Resum ind.'!C22</f>
@@ -12048,11 +12048,11 @@
       </c>
       <c r="B21" t="str">
         <f>'[1]Resum ind.'!B23</f>
-        <v>Xavier Gil</v>
+        <v>Albert Agell</v>
       </c>
       <c r="C21" t="str">
         <f>'[1]Resum ind.'!C23</f>
-        <v>Esbuskeskerra</v>
+        <v>Black Patt</v>
       </c>
       <c r="D21">
         <f>'[1]Resum ind.'!D23</f>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="B22" t="str">
         <f>'[1]Resum ind.'!B24</f>
-        <v>Albert Taberner</v>
+        <v>Xavier Gil</v>
       </c>
       <c r="C22" t="str">
         <f>'[1]Resum ind.'!C24</f>
@@ -12148,15 +12148,15 @@
       </c>
       <c r="B23" t="str">
         <f>'[1]Resum ind.'!B25</f>
-        <v>David Manresa</v>
+        <v>Albert Taberner</v>
       </c>
       <c r="C23" t="str">
         <f>'[1]Resum ind.'!C25</f>
-        <v>Marfallones Estrellufades</v>
+        <v>Esbuskeskerra</v>
       </c>
       <c r="D23">
         <f>'[1]Resum ind.'!D25</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E23" t="str">
         <f>'[1]Resum ind.'!E25</f>
@@ -12176,7 +12176,7 @@
       </c>
       <c r="I23">
         <f>'[1]Resum ind.'!I25</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J23">
         <f>'[1]Resum ind.'!J25</f>
@@ -12184,7 +12184,7 @@
       </c>
       <c r="K23">
         <f>'[1]Resum ind.'!K25</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L23">
         <f>'[1]Resum ind.'!L25</f>
@@ -12198,11 +12198,11 @@
       </c>
       <c r="B24" t="str">
         <f>'[1]Resum ind.'!B26</f>
-        <v>Santi Barrera</v>
+        <v>David Manresa</v>
       </c>
       <c r="C24" t="str">
         <f>'[1]Resum ind.'!C26</f>
-        <v>8 x 8</v>
+        <v>Marfallones Estrellufades</v>
       </c>
       <c r="D24">
         <f>'[1]Resum ind.'!D26</f>
@@ -12248,15 +12248,15 @@
       </c>
       <c r="B25" t="str">
         <f>'[1]Resum ind.'!B27</f>
-        <v>Víctor Aranda</v>
+        <v>Santi Barrera</v>
       </c>
       <c r="C25" t="str">
         <f>'[1]Resum ind.'!C27</f>
-        <v>Black Patt</v>
+        <v>8 x 8</v>
       </c>
       <c r="D25">
         <f>'[1]Resum ind.'!D27</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" t="str">
         <f>'[1]Resum ind.'!E27</f>
@@ -12276,7 +12276,7 @@
       </c>
       <c r="I25">
         <f>'[1]Resum ind.'!I27</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J25">
         <f>'[1]Resum ind.'!J27</f>
@@ -12284,7 +12284,7 @@
       </c>
       <c r="K25">
         <f>'[1]Resum ind.'!K27</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L25">
         <f>'[1]Resum ind.'!L27</f>
@@ -12298,11 +12298,11 @@
       </c>
       <c r="B26" t="str">
         <f>'[1]Resum ind.'!B28</f>
-        <v>Cristina Pino</v>
+        <v>Víctor Aranda</v>
       </c>
       <c r="C26" t="str">
         <f>'[1]Resum ind.'!C28</f>
-        <v>Esbuskeskerra</v>
+        <v>Black Patt</v>
       </c>
       <c r="D26">
         <f>'[1]Resum ind.'!D28</f>
@@ -12348,7 +12348,7 @@
       </c>
       <c r="B27" t="str">
         <f>'[1]Resum ind.'!B29</f>
-        <v>Ramon Julià</v>
+        <v>Cristina Pino</v>
       </c>
       <c r="C27" t="str">
         <f>'[1]Resum ind.'!C29</f>
@@ -12398,11 +12398,11 @@
       </c>
       <c r="B28" t="str">
         <f>'[1]Resum ind.'!B30</f>
-        <v>Carlos Galobardes</v>
+        <v>Ramon Julià</v>
       </c>
       <c r="C28" t="str">
         <f>'[1]Resum ind.'!C30</f>
-        <v>4 x 4</v>
+        <v>Esbuskeskerra</v>
       </c>
       <c r="D28">
         <f>'[1]Resum ind.'!D30</f>
@@ -12448,15 +12448,15 @@
       </c>
       <c r="B29" t="str">
         <f>'[1]Resum ind.'!B31</f>
-        <v/>
+        <v>Carlos Galobardes</v>
       </c>
       <c r="C29" t="str">
         <f>'[1]Resum ind.'!C31</f>
-        <v/>
-      </c>
-      <c r="D29" t="str">
+        <v>4 x 4</v>
+      </c>
+      <c r="D29">
         <f>'[1]Resum ind.'!D31</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="E29" t="str">
         <f>'[1]Resum ind.'!E31</f>
@@ -12474,21 +12474,21 @@
         <f>'[1]Resum ind.'!H31</f>
         <v/>
       </c>
-      <c r="I29" t="str">
+      <c r="I29">
         <f>'[1]Resum ind.'!I31</f>
-        <v/>
-      </c>
-      <c r="J29" t="str">
+        <v>33</v>
+      </c>
+      <c r="J29">
         <f>'[1]Resum ind.'!J31</f>
-        <v/>
-      </c>
-      <c r="K29" t="str">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <f>'[1]Resum ind.'!K31</f>
-        <v/>
-      </c>
-      <c r="L29" t="str">
+        <v>11</v>
+      </c>
+      <c r="L29">
         <f>'[1]Resum ind.'!L31</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -19606,7 +19606,7 @@
       </c>
       <c r="D172">
         <f>'[1]Resum ind.'!D226</f>
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E172" t="str">
         <f>'[1]Resum ind.'!E226</f>
@@ -19626,15 +19626,15 @@
       </c>
       <c r="I172">
         <f>'[1]Resum ind.'!I226</f>
-        <v>60.75</v>
+        <v>70</v>
       </c>
       <c r="J172">
         <f>'[1]Resum ind.'!J226</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K172">
         <f>'[1]Resum ind.'!K226</f>
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="L172">
         <f>'[1]Resum ind.'!L226</f>
@@ -19948,7 +19948,7 @@
       </c>
       <c r="B179" t="str">
         <f>'[1]Resum ind.'!B233</f>
-        <v>Martí Barrera Boschmonart</v>
+        <v>Martí Barrera (C.M)</v>
       </c>
       <c r="C179" t="str">
         <f>'[1]Resum ind.'!C233</f>
@@ -23938,11 +23938,11 @@
       </c>
       <c r="B260" t="str">
         <f>'[1]Resum equips'!B10</f>
-        <v>Esbuskeskerra</v>
+        <v>Oju Peligru</v>
       </c>
       <c r="C260">
         <f>'[1]Resum equips'!C10</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D260" t="str">
         <f>'[1]Resum equips'!D10</f>
@@ -23962,11 +23962,11 @@
       </c>
       <c r="H260">
         <f>'[1]Resum equips'!H10</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I260">
         <f>'[1]Resum equips'!I10</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -23976,11 +23976,11 @@
       </c>
       <c r="B261" t="str">
         <f>'[1]Resum equips'!B11</f>
-        <v>Black Patt</v>
+        <v>Esbuskeskerra</v>
       </c>
       <c r="C261">
         <f>'[1]Resum equips'!C11</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D261" t="str">
         <f>'[1]Resum equips'!D11</f>
@@ -24000,11 +24000,11 @@
       </c>
       <c r="H261">
         <f>'[1]Resum equips'!H11</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I261">
         <f>'[1]Resum equips'!I11</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -24014,11 +24014,11 @@
       </c>
       <c r="B262" t="str">
         <f>'[1]Resum equips'!B12</f>
-        <v/>
-      </c>
-      <c r="C262" t="str">
+        <v>Black Patt</v>
+      </c>
+      <c r="C262">
         <f>'[1]Resum equips'!C12</f>
-        <v/>
+        <v>83</v>
       </c>
       <c r="D262" t="str">
         <f>'[1]Resum equips'!D12</f>
@@ -24036,13 +24036,13 @@
         <f>'[1]Resum equips'!G12</f>
         <v/>
       </c>
-      <c r="H262" t="str">
+      <c r="H262">
         <f>'[1]Resum equips'!H12</f>
-        <v/>
-      </c>
-      <c r="I262" t="str">
+        <v>83</v>
+      </c>
+      <c r="I262">
         <f>'[1]Resum equips'!I12</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -24850,11 +24850,11 @@
       </c>
       <c r="B284" t="str">
         <f>'[1]Resum equips'!B38</f>
-        <v>Calella Marxa</v>
+        <v>La Penya del Bistec</v>
       </c>
       <c r="C284">
         <f>'[1]Resum equips'!C38</f>
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="D284" t="str">
         <f>'[1]Resum equips'!D38</f>
@@ -24874,11 +24874,11 @@
       </c>
       <c r="H284">
         <f>'[1]Resum equips'!H38</f>
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="I284">
         <f>'[1]Resum equips'!I38</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
@@ -24888,11 +24888,11 @@
       </c>
       <c r="B285" t="str">
         <f>'[1]Resum equips'!B39</f>
-        <v>Barri de Pequín</v>
+        <v>Calella Marxa</v>
       </c>
       <c r="C285">
         <f>'[1]Resum equips'!C39</f>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D285" t="str">
         <f>'[1]Resum equips'!D39</f>
@@ -24912,11 +24912,11 @@
       </c>
       <c r="H285">
         <f>'[1]Resum equips'!H39</f>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I285">
         <f>'[1]Resum equips'!I39</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -24926,11 +24926,11 @@
       </c>
       <c r="B286" t="str">
         <f>'[1]Resum equips'!B40</f>
-        <v>La Penya del Bistec</v>
+        <v>Barri de Pequín</v>
       </c>
       <c r="C286">
         <f>'[1]Resum equips'!C40</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D286" t="str">
         <f>'[1]Resum equips'!D40</f>
@@ -24950,7 +24950,7 @@
       </c>
       <c r="H286">
         <f>'[1]Resum equips'!H40</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I286">
         <f>'[1]Resum equips'!I40</f>
@@ -25109,6 +25109,11 @@
         <v/>
       </c>
     </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Web.xlsx
+++ b/Web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView activeTab="0" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Web" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,15 +51,25 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11058,14 +11079,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L291"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="A292" sqref="A292"/>
+    <sheetView topLeftCell="A256" workbookViewId="0" tabSelected="1">
+      <selection pane="topLeft" activeCell="H285" sqref="H285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -11104,9 +11124,8 @@
         <f>'[1]Resum ind.'!C4</f>
         <v>Oju Peligru</v>
       </c>
-      <c r="D2">
-        <f>'[1]Resum ind.'!D4</f>
-        <v>90</v>
+      <c r="D2" s="0">
+        <v>1</v>
       </c>
       <c r="E2" t="str">
         <f>'[1]Resum ind.'!E4</f>
@@ -11124,9 +11143,8 @@
         <f>'[1]Resum ind.'!H4</f>
         <v/>
       </c>
-      <c r="I2">
-        <f>'[1]Resum ind.'!I4</f>
-        <v>810</v>
+      <c r="I2" s="0">
+        <v>1</v>
       </c>
       <c r="J2">
         <f>'[1]Resum ind.'!J4</f>
@@ -24872,9 +24890,8 @@
         <f>'[1]Resum equips'!G38</f>
         <v/>
       </c>
-      <c r="H284">
-        <f>'[1]Resum equips'!H38</f>
-        <v>158</v>
+      <c r="H284" s="0">
+        <v>300</v>
       </c>
       <c r="I284">
         <f>'[1]Resum equips'!I38</f>
